--- a/data/login_data.xlsx
+++ b/data/login_data.xlsx
@@ -991,7 +991,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
